--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb1-Vasn.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H2">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I2">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J2">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.77971158890389</v>
+        <v>4.229040333333334</v>
       </c>
       <c r="N2">
-        <v>3.77971158890389</v>
+        <v>12.687121</v>
       </c>
       <c r="O2">
-        <v>0.04574720281989623</v>
+        <v>0.04803051451284639</v>
       </c>
       <c r="P2">
-        <v>0.04574720281989623</v>
+        <v>0.05232277349246102</v>
       </c>
       <c r="Q2">
-        <v>183.1193553562107</v>
+        <v>215.470615723973</v>
       </c>
       <c r="R2">
-        <v>183.1193553562107</v>
+        <v>1939.235541515757</v>
       </c>
       <c r="S2">
-        <v>0.007248590507408855</v>
+        <v>0.007300667589986887</v>
       </c>
       <c r="T2">
-        <v>0.007248590507408855</v>
+        <v>0.008062408186044237</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H3">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I3">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J3">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.8566297728912</v>
+        <v>49.16090533333334</v>
       </c>
       <c r="N3">
-        <v>45.8566297728912</v>
+        <v>147.482716</v>
       </c>
       <c r="O3">
-        <v>0.5550192107291732</v>
+        <v>0.5583355539236997</v>
       </c>
       <c r="P3">
-        <v>0.5550192107291732</v>
+        <v>0.6082313507785538</v>
       </c>
       <c r="Q3">
-        <v>2221.660644021636</v>
+        <v>2504.759876189708</v>
       </c>
       <c r="R3">
-        <v>2221.660644021636</v>
+        <v>22542.83888570737</v>
       </c>
       <c r="S3">
-        <v>0.08794214147168192</v>
+        <v>0.0848673457740681</v>
       </c>
       <c r="T3">
-        <v>0.08794214147168192</v>
+        <v>0.09372227606077355</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H4">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I4">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J4">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.21896837443592</v>
+        <v>6.800113333333333</v>
       </c>
       <c r="N4">
-        <v>6.21896837443592</v>
+        <v>20.40034</v>
       </c>
       <c r="O4">
-        <v>0.07527040115733936</v>
+        <v>0.07723098301316748</v>
       </c>
       <c r="P4">
-        <v>0.07527040115733936</v>
+        <v>0.08413274918629625</v>
       </c>
       <c r="Q4">
-        <v>301.2963960135439</v>
+        <v>346.46739956042</v>
       </c>
       <c r="R4">
-        <v>301.2963960135439</v>
+        <v>3118.20659604378</v>
       </c>
       <c r="S4">
-        <v>0.01192650657715523</v>
+        <v>0.01173915666625337</v>
       </c>
       <c r="T4">
-        <v>0.01192650657715523</v>
+        <v>0.01296400248835695</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H5">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I5">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J5">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.23314770488249</v>
+        <v>6.189867</v>
       </c>
       <c r="N5">
-        <v>5.23314770488249</v>
+        <v>18.569601</v>
       </c>
       <c r="O5">
-        <v>0.06333866058578291</v>
+        <v>0.07030022731936321</v>
       </c>
       <c r="P5">
-        <v>0.06333866058578291</v>
+        <v>0.07658262477108695</v>
       </c>
       <c r="Q5">
-        <v>253.5353853492875</v>
+        <v>315.375203028213</v>
       </c>
       <c r="R5">
-        <v>253.5353853492875</v>
+        <v>2838.376827253917</v>
       </c>
       <c r="S5">
-        <v>0.01003593631028344</v>
+        <v>0.01068567756070807</v>
       </c>
       <c r="T5">
-        <v>0.01003593631028344</v>
+        <v>0.01180060496892677</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H6">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I6">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J6">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.5332408468533</v>
+        <v>21.6691065</v>
       </c>
       <c r="N6">
-        <v>21.5332408468533</v>
+        <v>43.338213</v>
       </c>
       <c r="O6">
-        <v>0.2606245247078085</v>
+        <v>0.2461027212309232</v>
       </c>
       <c r="P6">
-        <v>0.2606245247078085</v>
+        <v>0.178730501771602</v>
       </c>
       <c r="Q6">
-        <v>1043.241816169712</v>
+        <v>1104.046155091454</v>
       </c>
       <c r="R6">
-        <v>1043.241816169712</v>
+        <v>6624.276930548721</v>
       </c>
       <c r="S6">
-        <v>0.04129564955550327</v>
+        <v>0.0374077641874443</v>
       </c>
       <c r="T6">
-        <v>0.04129564955550327</v>
+        <v>0.02754055575411701</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H7">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I7">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J7">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.77971158890389</v>
+        <v>4.229040333333334</v>
       </c>
       <c r="N7">
-        <v>3.77971158890389</v>
+        <v>12.687121</v>
       </c>
       <c r="O7">
-        <v>0.04574720281989623</v>
+        <v>0.04803051451284639</v>
       </c>
       <c r="P7">
-        <v>0.04574720281989623</v>
+        <v>0.05232277349246102</v>
       </c>
       <c r="Q7">
-        <v>51.5775637452795</v>
+        <v>64.26939131467911</v>
       </c>
       <c r="R7">
-        <v>51.5775637452795</v>
+        <v>578.424521832112</v>
       </c>
       <c r="S7">
-        <v>0.002041644577833142</v>
+        <v>0.002177603013862176</v>
       </c>
       <c r="T7">
-        <v>0.002041644577833142</v>
+        <v>0.002404810813328449</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H8">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I8">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J8">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.8566297728912</v>
+        <v>49.16090533333334</v>
       </c>
       <c r="N8">
-        <v>45.8566297728912</v>
+        <v>147.482716</v>
       </c>
       <c r="O8">
-        <v>0.5550192107291732</v>
+        <v>0.5583355539236997</v>
       </c>
       <c r="P8">
-        <v>0.5550192107291732</v>
+        <v>0.6082313507785538</v>
       </c>
       <c r="Q8">
-        <v>625.7549523615568</v>
+        <v>747.1060129997725</v>
       </c>
       <c r="R8">
-        <v>625.7549523615568</v>
+        <v>6723.954116997952</v>
       </c>
       <c r="S8">
-        <v>0.02476986334311176</v>
+        <v>0.02531376557803614</v>
       </c>
       <c r="T8">
-        <v>0.02476986334311176</v>
+        <v>0.02795496552888939</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H9">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I9">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J9">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.21896837443592</v>
+        <v>6.800113333333333</v>
       </c>
       <c r="N9">
-        <v>6.21896837443592</v>
+        <v>20.40034</v>
       </c>
       <c r="O9">
-        <v>0.07527040115733936</v>
+        <v>0.07723098301316748</v>
       </c>
       <c r="P9">
-        <v>0.07527040115733936</v>
+        <v>0.08413274918629625</v>
       </c>
       <c r="Q9">
-        <v>84.86341622043324</v>
+        <v>103.3423922111644</v>
       </c>
       <c r="R9">
-        <v>84.86341622043324</v>
+        <v>930.0815299004799</v>
       </c>
       <c r="S9">
-        <v>0.003359230661582032</v>
+        <v>0.003501491147425259</v>
       </c>
       <c r="T9">
-        <v>0.003359230661582032</v>
+        <v>0.003866831429098602</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H10">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I10">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J10">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.23314770488249</v>
+        <v>6.189867</v>
       </c>
       <c r="N10">
-        <v>5.23314770488249</v>
+        <v>18.569601</v>
       </c>
       <c r="O10">
-        <v>0.06333866058578291</v>
+        <v>0.07030022731936321</v>
       </c>
       <c r="P10">
-        <v>0.06333866058578291</v>
+        <v>0.07658262477108695</v>
       </c>
       <c r="Q10">
-        <v>71.41100663061809</v>
+        <v>94.06838267140799</v>
       </c>
       <c r="R10">
-        <v>71.41100663061809</v>
+        <v>846.6154440426718</v>
       </c>
       <c r="S10">
-        <v>0.002826730925195194</v>
+        <v>0.003187265188360549</v>
       </c>
       <c r="T10">
-        <v>0.002826730925195194</v>
+        <v>0.003519819609507529</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H11">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I11">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J11">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.5332408468533</v>
+        <v>21.6691065</v>
       </c>
       <c r="N11">
-        <v>21.5332408468533</v>
+        <v>43.338213</v>
       </c>
       <c r="O11">
-        <v>0.2606245247078085</v>
+        <v>0.2461027212309232</v>
       </c>
       <c r="P11">
-        <v>0.2606245247078085</v>
+        <v>0.178730501771602</v>
       </c>
       <c r="Q11">
-        <v>293.8404363130558</v>
+        <v>329.3088207532559</v>
       </c>
       <c r="R11">
-        <v>293.8404363130558</v>
+        <v>1975.852924519536</v>
       </c>
       <c r="S11">
-        <v>0.01163137011490934</v>
+        <v>0.01115778235789675</v>
       </c>
       <c r="T11">
-        <v>0.01163137011490934</v>
+        <v>0.008214645643620136</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H12">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I12">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J12">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.77971158890389</v>
+        <v>4.229040333333334</v>
       </c>
       <c r="N12">
-        <v>3.77971158890389</v>
+        <v>12.687121</v>
       </c>
       <c r="O12">
-        <v>0.04574720281989623</v>
+        <v>0.04803051451284639</v>
       </c>
       <c r="P12">
-        <v>0.04574720281989623</v>
+        <v>0.05232277349246102</v>
       </c>
       <c r="Q12">
-        <v>389.2218674157605</v>
+        <v>525.4679882094333</v>
       </c>
       <c r="R12">
-        <v>389.2218674157605</v>
+        <v>4729.2118938849</v>
       </c>
       <c r="S12">
-        <v>0.01540694552980328</v>
+        <v>0.01780413119536746</v>
       </c>
       <c r="T12">
-        <v>0.01540694552980328</v>
+        <v>0.01966178727159306</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H13">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I13">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J13">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>45.8566297728912</v>
+        <v>49.16090533333334</v>
       </c>
       <c r="N13">
-        <v>45.8566297728912</v>
+        <v>147.482716</v>
       </c>
       <c r="O13">
-        <v>0.5550192107291732</v>
+        <v>0.5583355539236997</v>
       </c>
       <c r="P13">
-        <v>0.5550192107291732</v>
+        <v>0.6082313507785538</v>
       </c>
       <c r="Q13">
-        <v>4722.160052104368</v>
+        <v>6108.355557748933</v>
       </c>
       <c r="R13">
-        <v>4722.160052104368</v>
+        <v>54975.2000197404</v>
       </c>
       <c r="S13">
-        <v>0.1869218273598958</v>
+        <v>0.2069659164370797</v>
       </c>
       <c r="T13">
-        <v>0.1869218273598958</v>
+        <v>0.2285604266112677</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H14">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I14">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J14">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.21896837443592</v>
+        <v>6.800113333333333</v>
       </c>
       <c r="N14">
-        <v>6.21896837443592</v>
+        <v>20.40034</v>
       </c>
       <c r="O14">
-        <v>0.07527040115733936</v>
+        <v>0.07723098301316748</v>
       </c>
       <c r="P14">
-        <v>0.07527040115733936</v>
+        <v>0.08413274918629625</v>
       </c>
       <c r="Q14">
-        <v>640.4082499848787</v>
+        <v>844.9297219273333</v>
       </c>
       <c r="R14">
-        <v>640.4082499848787</v>
+        <v>7604.367497345999</v>
       </c>
       <c r="S14">
-        <v>0.02534989899170845</v>
+        <v>0.02862827033730524</v>
       </c>
       <c r="T14">
-        <v>0.02534989899170845</v>
+        <v>0.03161530069337012</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H15">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I15">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J15">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.23314770488249</v>
+        <v>6.189867</v>
       </c>
       <c r="N15">
-        <v>5.23314770488249</v>
+        <v>18.569601</v>
       </c>
       <c r="O15">
-        <v>0.06333866058578291</v>
+        <v>0.07030022731936321</v>
       </c>
       <c r="P15">
-        <v>0.06333866058578291</v>
+        <v>0.07658262477108695</v>
       </c>
       <c r="Q15">
-        <v>538.891784266415</v>
+        <v>769.1052114440998</v>
       </c>
       <c r="R15">
-        <v>538.891784266415</v>
+        <v>6921.946902996899</v>
       </c>
       <c r="S15">
-        <v>0.02133147456944492</v>
+        <v>0.02605915183197407</v>
       </c>
       <c r="T15">
-        <v>0.02133147456944492</v>
+        <v>0.02877812425532646</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H16">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I16">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J16">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.5332408468533</v>
+        <v>21.6691065</v>
       </c>
       <c r="N16">
-        <v>21.5332408468533</v>
+        <v>43.338213</v>
       </c>
       <c r="O16">
-        <v>0.2606245247078085</v>
+        <v>0.2461027212309232</v>
       </c>
       <c r="P16">
-        <v>0.2606245247078085</v>
+        <v>0.178730501771602</v>
       </c>
       <c r="Q16">
-        <v>2217.42003769026</v>
+        <v>2692.43632156995</v>
       </c>
       <c r="R16">
-        <v>2217.42003769026</v>
+        <v>16154.6179294197</v>
       </c>
       <c r="S16">
-        <v>0.08777428145088029</v>
+        <v>0.09122627939287163</v>
       </c>
       <c r="T16">
-        <v>0.08777428145088029</v>
+        <v>0.06716312745318569</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H17">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I17">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J17">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.77971158890389</v>
+        <v>4.229040333333334</v>
       </c>
       <c r="N17">
-        <v>3.77971158890389</v>
+        <v>12.687121</v>
       </c>
       <c r="O17">
-        <v>0.04574720281989623</v>
+        <v>0.04803051451284639</v>
       </c>
       <c r="P17">
-        <v>0.04574720281989623</v>
+        <v>0.05232277349246102</v>
       </c>
       <c r="Q17">
-        <v>490.2230296955167</v>
+        <v>554.6957754612502</v>
       </c>
       <c r="R17">
-        <v>490.2230296955167</v>
+        <v>4992.261979151252</v>
       </c>
       <c r="S17">
-        <v>0.01940497219778801</v>
+        <v>0.01879443958799637</v>
       </c>
       <c r="T17">
-        <v>0.01940497219778801</v>
+        <v>0.0207554229416228</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H18">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I18">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J18">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>45.8566297728912</v>
+        <v>49.16090533333334</v>
       </c>
       <c r="N18">
-        <v>45.8566297728912</v>
+        <v>147.482716</v>
       </c>
       <c r="O18">
-        <v>0.5550192107291732</v>
+        <v>0.5583355539236997</v>
       </c>
       <c r="P18">
-        <v>0.5550192107291732</v>
+        <v>0.6082313507785538</v>
       </c>
       <c r="Q18">
-        <v>5947.537384832984</v>
+        <v>6448.11691468469</v>
       </c>
       <c r="R18">
-        <v>5947.537384832984</v>
+        <v>58033.0522321622</v>
       </c>
       <c r="S18">
-        <v>0.2354271231803868</v>
+        <v>0.2184778560979773</v>
       </c>
       <c r="T18">
-        <v>0.2354271231803868</v>
+        <v>0.2412735046161567</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H19">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I19">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J19">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.21896837443592</v>
+        <v>6.800113333333333</v>
       </c>
       <c r="N19">
-        <v>6.21896837443592</v>
+        <v>20.40034</v>
       </c>
       <c r="O19">
-        <v>0.07527040115733936</v>
+        <v>0.07723098301316748</v>
       </c>
       <c r="P19">
-        <v>0.07527040115733936</v>
+        <v>0.08413274918629625</v>
       </c>
       <c r="Q19">
-        <v>806.5910444189982</v>
+        <v>891.9267354645044</v>
       </c>
       <c r="R19">
-        <v>806.5910444189982</v>
+        <v>8027.340619180541</v>
       </c>
       <c r="S19">
-        <v>0.03192807323160035</v>
+        <v>0.03022064325740929</v>
       </c>
       <c r="T19">
-        <v>0.03192807323160035</v>
+        <v>0.03337381939156291</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H20">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I20">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J20">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.23314770488249</v>
+        <v>6.189867</v>
       </c>
       <c r="N20">
-        <v>5.23314770488249</v>
+        <v>18.569601</v>
       </c>
       <c r="O20">
-        <v>0.06333866058578291</v>
+        <v>0.07030022731936321</v>
       </c>
       <c r="P20">
-        <v>0.06333866058578291</v>
+        <v>0.07658262477108695</v>
       </c>
       <c r="Q20">
-        <v>678.7315546146204</v>
+        <v>811.8846842164589</v>
       </c>
       <c r="R20">
-        <v>678.7315546146204</v>
+        <v>7306.962157948131</v>
       </c>
       <c r="S20">
-        <v>0.02686688741497653</v>
+        <v>0.02750862423143099</v>
       </c>
       <c r="T20">
-        <v>0.02686688741497653</v>
+        <v>0.0303788324090376</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>129.698528092637</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H21">
-        <v>129.698528092637</v>
+        <v>393.490531</v>
       </c>
       <c r="I21">
-        <v>0.4241783322618462</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J21">
-        <v>0.4241783322618462</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.5332408468533</v>
+        <v>21.6691065</v>
       </c>
       <c r="N21">
-        <v>21.5332408468533</v>
+        <v>43.338213</v>
       </c>
       <c r="O21">
-        <v>0.2606245247078085</v>
+        <v>0.2461027212309232</v>
       </c>
       <c r="P21">
-        <v>0.2606245247078085</v>
+        <v>0.178730501771602</v>
       </c>
       <c r="Q21">
-        <v>2792.829642901121</v>
+        <v>2842.19607432685</v>
       </c>
       <c r="R21">
-        <v>2792.829642901121</v>
+        <v>17053.1764459611</v>
       </c>
       <c r="S21">
-        <v>0.1105512762370945</v>
+        <v>0.0963005034097435</v>
       </c>
       <c r="T21">
-        <v>0.1105512762370945</v>
+        <v>0.07089890136218729</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H22">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I22">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J22">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.77971158890389</v>
+        <v>4.229040333333334</v>
       </c>
       <c r="N22">
-        <v>3.77971158890389</v>
+        <v>12.687121</v>
       </c>
       <c r="O22">
-        <v>0.04574720281989623</v>
+        <v>0.04803051451284639</v>
       </c>
       <c r="P22">
-        <v>0.04574720281989623</v>
+        <v>0.05232277349246102</v>
       </c>
       <c r="Q22">
-        <v>41.55849285653463</v>
+        <v>57.66036408519501</v>
       </c>
       <c r="R22">
-        <v>41.55849285653463</v>
+        <v>345.9621845111701</v>
       </c>
       <c r="S22">
-        <v>0.001645050007062941</v>
+        <v>0.00195367312563349</v>
       </c>
       <c r="T22">
-        <v>0.001645050007062941</v>
+        <v>0.001438344279872482</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H23">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I23">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J23">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>45.8566297728912</v>
+        <v>49.16090533333334</v>
       </c>
       <c r="N23">
-        <v>45.8566297728912</v>
+        <v>147.482716</v>
       </c>
       <c r="O23">
-        <v>0.5550192107291732</v>
+        <v>0.5583355539236997</v>
       </c>
       <c r="P23">
-        <v>0.5550192107291732</v>
+        <v>0.6082313507785538</v>
       </c>
       <c r="Q23">
-        <v>504.2004862053804</v>
+        <v>670.2787102632201</v>
       </c>
       <c r="R23">
-        <v>504.2004862053804</v>
+        <v>4021.67226157932</v>
       </c>
       <c r="S23">
-        <v>0.01995825537409688</v>
+        <v>0.02271067003653834</v>
       </c>
       <c r="T23">
-        <v>0.01995825537409688</v>
+        <v>0.01672017796146641</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H24">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I24">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J24">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.21896837443592</v>
+        <v>6.800113333333333</v>
       </c>
       <c r="N24">
-        <v>6.21896837443592</v>
+        <v>20.40034</v>
       </c>
       <c r="O24">
-        <v>0.07527040115733936</v>
+        <v>0.07723098301316748</v>
       </c>
       <c r="P24">
-        <v>0.07527040115733936</v>
+        <v>0.08413274918629625</v>
       </c>
       <c r="Q24">
-        <v>68.37848515287386</v>
+        <v>92.7153632303</v>
       </c>
       <c r="R24">
-        <v>68.37848515287386</v>
+        <v>556.2921793818</v>
       </c>
       <c r="S24">
-        <v>0.002706691695293303</v>
+        <v>0.003141421604774315</v>
       </c>
       <c r="T24">
-        <v>0.002706691695293303</v>
+        <v>0.002312795183907663</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H25">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I25">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J25">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.23314770488249</v>
+        <v>6.189867</v>
       </c>
       <c r="N25">
-        <v>5.23314770488249</v>
+        <v>18.569601</v>
       </c>
       <c r="O25">
-        <v>0.06333866058578291</v>
+        <v>0.07030022731936321</v>
       </c>
       <c r="P25">
-        <v>0.06333866058578291</v>
+        <v>0.07658262477108695</v>
       </c>
       <c r="Q25">
-        <v>57.53923980575959</v>
+        <v>84.395029776795</v>
       </c>
       <c r="R25">
-        <v>57.53923980575959</v>
+        <v>506.37017866077</v>
       </c>
       <c r="S25">
-        <v>0.002277631365882836</v>
+        <v>0.002859508506889529</v>
       </c>
       <c r="T25">
-        <v>0.002277631365882836</v>
+        <v>0.002105243528288594</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>10.9951492009438</v>
+        <v>13.634385</v>
       </c>
       <c r="H26">
-        <v>10.9951492009438</v>
+        <v>27.26877</v>
       </c>
       <c r="I26">
-        <v>0.03595957579175706</v>
+        <v>0.04067566515680266</v>
       </c>
       <c r="J26">
-        <v>0.03595957579175706</v>
+        <v>0.02748983251202704</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>21.5332408468533</v>
+        <v>21.6691065</v>
       </c>
       <c r="N26">
-        <v>21.5332408468533</v>
+        <v>43.338213</v>
       </c>
       <c r="O26">
-        <v>0.2606245247078085</v>
+        <v>0.2461027212309232</v>
       </c>
       <c r="P26">
-        <v>0.2606245247078085</v>
+        <v>0.178730501771602</v>
       </c>
       <c r="Q26">
-        <v>236.7611958910095</v>
+        <v>295.4449406270025</v>
       </c>
       <c r="R26">
-        <v>236.7611958910095</v>
+        <v>1181.77976250801</v>
       </c>
       <c r="S26">
-        <v>0.0093719473494211</v>
+        <v>0.01001039188296698</v>
       </c>
       <c r="T26">
-        <v>0.0093719473494211</v>
+        <v>0.004913271558491892</v>
       </c>
     </row>
   </sheetData>
